--- a/Modelagem_Opflix_Tarde.xlsx
+++ b/Modelagem_Opflix_Tarde.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20348"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20350"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47218167829\Desktop\2s-2019-t2-sprint-1-bd-OPflix\2s2019-sprint-1-bd-opflix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CF95B8-9DA9-4F9A-A6E0-29024259C437}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68912ED2-0B48-440F-8D43-853BB8107CAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13995" windowHeight="5955" xr2:uid="{AE9DCB35-F543-4AF3-A13D-7D0AD59A4717}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Opflix</t>
   </si>
@@ -121,12 +121,6 @@
   </si>
   <si>
     <t>Permissão</t>
-  </si>
-  <si>
-    <t>IdPermissão</t>
-  </si>
-  <si>
-    <t>Administrador</t>
   </si>
   <si>
     <t>30 Temporadas</t>
@@ -192,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +205,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -225,13 +225,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -549,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5025161-0D8C-4DC7-9BD0-533B41F81F67}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,10 +588,10 @@
         <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -604,14 +605,13 @@
         <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1">
         <v>123456</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
@@ -624,17 +624,13 @@
         <v>13</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1">
         <v>123123</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
@@ -647,25 +643,17 @@
         <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1">
         <v>112233</v>
       </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K8" s="1">
-        <v>2</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
@@ -732,7 +720,7 @@
         <v>18</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
@@ -772,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1">
         <v>3</v>
@@ -792,13 +780,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19" s="1">
         <v>2</v>
@@ -818,7 +806,7 @@
         <v>17</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
@@ -829,7 +817,7 @@
         <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>3</v>
@@ -846,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
@@ -860,7 +848,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
@@ -874,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.25">
@@ -887,7 +875,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
